--- a/biology/Botanique/Nigelle_des_champs/Nigelle_des_champs.xlsx
+++ b/biology/Botanique/Nigelle_des_champs/Nigelle_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nigella arvensis
 La Nigelle des champs (Nigella arvensis L. 1753) est une espèce de plante herbacée annuelle de la famille des Renonculacées. Vivant dans des climats méditerranéens, elle apprécie particulièrement les zones calcaires à proximité d'un ruissellement d'eau (thérophyte). Elle peut se différencier de sa proche parente la Nigelle de Damas par l'absence du groupe de feuilles directement sous le calice de sépales.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 mars 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 mars 2011) :
 Nigella arvensis subsp. aristata
 Nigella arvensis subsp. arvensis
 Nigella arvensis subsp. brevifolia
